--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA828088-EB7D-41B6-8557-3FC3E214062B}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{467880A5-333A-4BF1-B49E-5D2D287D3C17}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="10" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="3" r:id="rId2"/>
+    <sheet name="User Registration" sheetId="4" r:id="rId3"/>
+    <sheet name="Product Search &amp; Browse" sheetId="5" r:id="rId4"/>
+    <sheet name="  Product Details Page" sheetId="6" r:id="rId5"/>
+    <sheet name="Add to Cart" sheetId="7" r:id="rId6"/>
+    <sheet name="Checkout &amp; Address Management" sheetId="8" r:id="rId7"/>
+    <sheet name="Payment" sheetId="9" r:id="rId8"/>
+    <sheet name="Order Confirmation" sheetId="11" r:id="rId9"/>
+    <sheet name=" Order Tracking &amp; Cancellation" sheetId="10" r:id="rId10"/>
+    <sheet name="Non-Functional Scenarios" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="210">
   <si>
     <t>🔸 Module: Application URL / Launch</t>
   </si>
@@ -208,6 +217,465 @@
   </si>
   <si>
     <t>Verify session timeout after inactivity</t>
+  </si>
+  <si>
+    <t>Module 1: User Registration</t>
+  </si>
+  <si>
+    <t>TS_REG_01</t>
+  </si>
+  <si>
+    <t>FR-REG-01</t>
+  </si>
+  <si>
+    <t>Verify user can register with valid details</t>
+  </si>
+  <si>
+    <t>TS_REG_02</t>
+  </si>
+  <si>
+    <t>FR-REG-02</t>
+  </si>
+  <si>
+    <t>Verify registration with already registered email</t>
+  </si>
+  <si>
+    <t>TS_REG_03</t>
+  </si>
+  <si>
+    <t>FR-REG-03</t>
+  </si>
+  <si>
+    <t>Verify mandatory field validation during registration</t>
+  </si>
+  <si>
+    <t>TS_REG_04</t>
+  </si>
+  <si>
+    <t>FR-REG-04</t>
+  </si>
+  <si>
+    <t>Verify password complexity rules</t>
+  </si>
+  <si>
+    <t>TS_REG_05</t>
+  </si>
+  <si>
+    <t>FR-REG-05</t>
+  </si>
+  <si>
+    <t>Verify confirm password mismatch validation</t>
+  </si>
+  <si>
+    <t>TS_REG_06</t>
+  </si>
+  <si>
+    <t>FR-REG-06</t>
+  </si>
+  <si>
+    <t>Verify mobile number validation</t>
+  </si>
+  <si>
+    <t>TS_REG_07</t>
+  </si>
+  <si>
+    <t>FR-REG-07</t>
+  </si>
+  <si>
+    <t>Verify successful account creation message</t>
+  </si>
+  <si>
+    <t>Module 2: Product Search &amp; Browse</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_01</t>
+  </si>
+  <si>
+    <t>FR-SEARCH-01</t>
+  </si>
+  <si>
+    <t>Verify product search using valid keyword</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_02</t>
+  </si>
+  <si>
+    <t>FR-SEARCH-02</t>
+  </si>
+  <si>
+    <t>Verify product search using invalid keyword</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_03</t>
+  </si>
+  <si>
+    <t>FR-SEARCH-03</t>
+  </si>
+  <si>
+    <t>Verify search result when no product is found</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_04</t>
+  </si>
+  <si>
+    <t>FR-SEARCH-04</t>
+  </si>
+  <si>
+    <t>Verify product search using partial keyword</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_05</t>
+  </si>
+  <si>
+    <t>FR-SEARCH-05</t>
+  </si>
+  <si>
+    <t>Verify search suggestions / auto-complete</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_06</t>
+  </si>
+  <si>
+    <t>FR-SEARCH-06</t>
+  </si>
+  <si>
+    <t>Verify browsing products by category</t>
+  </si>
+  <si>
+    <t>TS_SEARCH_07</t>
+  </si>
+  <si>
+    <t>FR-SEARCH-07</t>
+  </si>
+  <si>
+    <t>Verify product listing pagination</t>
+  </si>
+  <si>
+    <t>Module 3: Product Details Page</t>
+  </si>
+  <si>
+    <t>TS_PDP_01</t>
+  </si>
+  <si>
+    <t>FR-PDP-01</t>
+  </si>
+  <si>
+    <t>Verify product details page loads correctly</t>
+  </si>
+  <si>
+    <t>TS_PDP_02</t>
+  </si>
+  <si>
+    <t>FR-PDP-02</t>
+  </si>
+  <si>
+    <t>Verify product name, price, and description</t>
+  </si>
+  <si>
+    <t>TS_PDP_03</t>
+  </si>
+  <si>
+    <t>FR-PDP-03</t>
+  </si>
+  <si>
+    <t>Verify product images and zoom functionality</t>
+  </si>
+  <si>
+    <t>TS_PDP_04</t>
+  </si>
+  <si>
+    <t>FR-PDP-04</t>
+  </si>
+  <si>
+    <t>Verify availability / stock status</t>
+  </si>
+  <si>
+    <t>TS_PDP_05</t>
+  </si>
+  <si>
+    <t>FR-PDP-05</t>
+  </si>
+  <si>
+    <t>Verify product ratings and reviews</t>
+  </si>
+  <si>
+    <t>TS_PDP_06</t>
+  </si>
+  <si>
+    <t>FR-PDP-06</t>
+  </si>
+  <si>
+    <t>Verify similar / recommended products</t>
+  </si>
+  <si>
+    <t>TS_CART_01</t>
+  </si>
+  <si>
+    <t>FR-CART-01</t>
+  </si>
+  <si>
+    <t>Verify product can be added to cart</t>
+  </si>
+  <si>
+    <t>TS_CART_02</t>
+  </si>
+  <si>
+    <t>FR-CART-02</t>
+  </si>
+  <si>
+    <t>Verify updating product quantity in cart</t>
+  </si>
+  <si>
+    <t>TS_CART_03</t>
+  </si>
+  <si>
+    <t>FR-CART-03</t>
+  </si>
+  <si>
+    <t>Verify removing product from cart</t>
+  </si>
+  <si>
+    <t>TS_CART_04</t>
+  </si>
+  <si>
+    <t>FR-CART-04</t>
+  </si>
+  <si>
+    <t>Verify cart total price calculation</t>
+  </si>
+  <si>
+    <t>TS_CART_05</t>
+  </si>
+  <si>
+    <t>FR-CART-05</t>
+  </si>
+  <si>
+    <t>Verify cart persistence after logout/login</t>
+  </si>
+  <si>
+    <t>Module 4: Add to Cart</t>
+  </si>
+  <si>
+    <t>Module 5: Checkout &amp; Address Management</t>
+  </si>
+  <si>
+    <t>TS_CHK_01</t>
+  </si>
+  <si>
+    <t>FR-CHK-01</t>
+  </si>
+  <si>
+    <t>Verify user can proceed to checkout</t>
+  </si>
+  <si>
+    <t>TS_CHK_02</t>
+  </si>
+  <si>
+    <t>FR-CHK-02</t>
+  </si>
+  <si>
+    <t>Verify login is required before checkout</t>
+  </si>
+  <si>
+    <t>TS_CHK_03</t>
+  </si>
+  <si>
+    <t>FR-CHK-03</t>
+  </si>
+  <si>
+    <t>Verify adding a new delivery address</t>
+  </si>
+  <si>
+    <t>TS_CHK_04</t>
+  </si>
+  <si>
+    <t>FR-CHK-04</t>
+  </si>
+  <si>
+    <t>Verify mandatory address field validation</t>
+  </si>
+  <si>
+    <t>TS_CHK_05</t>
+  </si>
+  <si>
+    <t>FR-CHK-05</t>
+  </si>
+  <si>
+    <t>Verify selecting existing address</t>
+  </si>
+  <si>
+    <t>Module 6: Payment</t>
+  </si>
+  <si>
+    <t>TS_PAY_01</t>
+  </si>
+  <si>
+    <t>FR-PAY-01</t>
+  </si>
+  <si>
+    <t>Verify payment using Credit/Debit Card</t>
+  </si>
+  <si>
+    <t>TS_PAY_02</t>
+  </si>
+  <si>
+    <t>FR-PAY-02</t>
+  </si>
+  <si>
+    <t>Verify payment using UPI</t>
+  </si>
+  <si>
+    <t>TS_PAY_03</t>
+  </si>
+  <si>
+    <t>FR-PAY-03</t>
+  </si>
+  <si>
+    <t>Verify Cash on Delivery option</t>
+  </si>
+  <si>
+    <t>TS_PAY_04</t>
+  </si>
+  <si>
+    <t>FR-PAY-04</t>
+  </si>
+  <si>
+    <t>Verify payment failure handling</t>
+  </si>
+  <si>
+    <t>TS_PAY_05</t>
+  </si>
+  <si>
+    <t>FR-PAY-05</t>
+  </si>
+  <si>
+    <t>Verify secure payment processing</t>
+  </si>
+  <si>
+    <t>TS_TRACK_01</t>
+  </si>
+  <si>
+    <t>FR-TRACK-01</t>
+  </si>
+  <si>
+    <t>Verify order tracking status</t>
+  </si>
+  <si>
+    <t>TS_TRACK_02</t>
+  </si>
+  <si>
+    <t>FR-TRACK-02</t>
+  </si>
+  <si>
+    <t>Verify order cancellation before shipment</t>
+  </si>
+  <si>
+    <t>TS_TRACK_03</t>
+  </si>
+  <si>
+    <t>FR-TRACK-03</t>
+  </si>
+  <si>
+    <t>Verify cancellation confirmation message</t>
+  </si>
+  <si>
+    <t>TS_TRACK_04</t>
+  </si>
+  <si>
+    <t>FR-TRACK-04</t>
+  </si>
+  <si>
+    <t>Verify refund initiation after cancellation</t>
+  </si>
+  <si>
+    <t>Module 7: Order Confirmation</t>
+  </si>
+  <si>
+    <t>TS_ORD_01</t>
+  </si>
+  <si>
+    <t>FR-ORD-01</t>
+  </si>
+  <si>
+    <t>Verify order confirmation after successful payment</t>
+  </si>
+  <si>
+    <t>TS_ORD_02</t>
+  </si>
+  <si>
+    <t>FR-ORD-02</t>
+  </si>
+  <si>
+    <t>Verify unique order ID generation</t>
+  </si>
+  <si>
+    <t>TS_ORD_03</t>
+  </si>
+  <si>
+    <t>FR-ORD-03</t>
+  </si>
+  <si>
+    <t>Verify order details in confirmation page</t>
+  </si>
+  <si>
+    <t>TS_ORD_04</t>
+  </si>
+  <si>
+    <t>FR-ORD-04</t>
+  </si>
+  <si>
+    <t>Verify order appears in My Orders</t>
+  </si>
+  <si>
+    <t>Module 8: Order Tracking &amp; Cancellation</t>
+  </si>
+  <si>
+    <t>Module 9: Non-Functional Scenarios</t>
+  </si>
+  <si>
+    <t>TS_NFR_01</t>
+  </si>
+  <si>
+    <t>NFR-PERF-01</t>
+  </si>
+  <si>
+    <t>Verify page load performance</t>
+  </si>
+  <si>
+    <t>TS_NFR_02</t>
+  </si>
+  <si>
+    <t>NFR-SEC-01</t>
+  </si>
+  <si>
+    <t>Verify password masking</t>
+  </si>
+  <si>
+    <t>TS_NFR_03</t>
+  </si>
+  <si>
+    <t>NFR-SEC-02</t>
+  </si>
+  <si>
+    <t>Verify session timeout</t>
+  </si>
+  <si>
+    <t>TS_NFR_04</t>
+  </si>
+  <si>
+    <t>NFR-COMP-01</t>
+  </si>
+  <si>
+    <t>Verify browser compatibility</t>
+  </si>
+  <si>
+    <t>TS_NFR_05</t>
+  </si>
+  <si>
+    <t>NFR-USE-01</t>
+  </si>
+  <si>
+    <t>Verify usability and error messages</t>
   </si>
 </sst>
 </file>
@@ -232,19 +700,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,6 +749,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,9 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DBFA7C-7A1B-464B-8A42-43D024439081}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -614,26 +1084,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -690,6 +1160,194 @@
       </c>
       <c r="C11" t="s">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0290F6-856A-404F-B56C-70A88603A650}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB80418-CBCB-4733-9A4F-5BA017262BD8}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -699,165 +1357,900 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CCDDFF-8ABD-47D3-926A-74F9DA8E1EDB}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E55CBDF-F532-49CB-AB66-77BF979D15C6}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C92C36B-F78A-4DA3-B707-2B968304D4D4}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BEF410-A99C-4F83-8530-914822E5D2F6}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9775B6-2F51-4959-906D-EDEBA6A5A0C8}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338B023B-EC1B-4CB7-BD70-1AFF2EFC0F7B}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BE7E3-C79E-48DB-8D5F-79AD45D7FEDF}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473D36B-751E-4B9E-AFAD-955A33B20471}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1659,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="220" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA6C190E-121B-4FA4-8111-DE1A0625FE70}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="10" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DBFA7C-7A1B-464B-8A42-43D024439081}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB80418-CBCB-4733-9A4F-5BA017262BD8}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD9F560-BDFB-420E-AEE3-52A1B833425F}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{939E4DA6-3C48-4BA9-B892-0A5D24AC7FCC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="228">
   <si>
     <t>Test Scenarios –  (Amazon E-commerce)</t>
   </si>
@@ -411,18 +411,12 @@
     <t>FR-CHK-02</t>
   </si>
   <si>
-    <t>Verify login is required before checkout</t>
-  </si>
-  <si>
     <t>TS_CHK_03</t>
   </si>
   <si>
     <t>FR-CHK-03</t>
   </si>
   <si>
-    <t>Verify adding a new delivery address</t>
-  </si>
-  <si>
     <t>TS_CHK_04</t>
   </si>
   <si>
@@ -703,6 +697,39 @@
   </si>
   <si>
     <t>Verify user is able to complete registration by entering a valid OTP.</t>
+  </si>
+  <si>
+    <t>TS_CART_06</t>
+  </si>
+  <si>
+    <t>FR-CART-06</t>
+  </si>
+  <si>
+    <t>Verify product details in cart</t>
+  </si>
+  <si>
+    <t>TS_CHK_06</t>
+  </si>
+  <si>
+    <t>TS_CHK_07</t>
+  </si>
+  <si>
+    <t>FR-CHK-06</t>
+  </si>
+  <si>
+    <t>FR-CHK-07</t>
+  </si>
+  <si>
+    <t>Verify Added new delivery address</t>
+  </si>
+  <si>
+    <t>Verify Edit/delet address</t>
+  </si>
+  <si>
+    <t>Verify Delivery option</t>
+  </si>
+  <si>
+    <t>Verify proceed to payment</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1158,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1231,7 +1258,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1247,46 +1274,46 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
         <v>146</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
         <v>149</v>
-      </c>
-      <c r="B9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
         <v>152</v>
-      </c>
-      <c r="B10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
         <v>155</v>
-      </c>
-      <c r="B11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1346,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,57 +1362,57 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" t="s">
         <v>170</v>
-      </c>
-      <c r="B7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
         <v>173</v>
-      </c>
-      <c r="B8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
         <v>176</v>
-      </c>
-      <c r="B9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
         <v>179</v>
-      </c>
-      <c r="B10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" t="s">
         <v>182</v>
-      </c>
-      <c r="B11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1418,7 +1445,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1437,10 +1464,10 @@
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1448,10 +1475,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1459,10 +1486,10 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1470,10 +1497,10 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,10 +1508,10 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1492,10 +1519,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1503,43 +1530,43 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CCDDFF-8ABD-47D3-926A-74F9DA8E1EDB}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1573,7 +1600,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1729,7 +1756,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,7 +1776,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,7 +1886,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,10 +1984,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9775B6-2F51-4959-906D-EDEBA6A5A0C8}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +2007,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2013,7 +2040,7 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2024,7 +2051,7 @@
         <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,7 +2062,7 @@
         <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2046,20 +2073,32 @@
         <v>114</v>
       </c>
       <c r="C10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338B023B-EC1B-4CB7-BD70-1AFF2EFC0F7B}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,7 +2118,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2112,43 +2151,66 @@
         <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
         <v>122</v>
       </c>
-      <c r="B8" t="s">
-        <v>123</v>
-      </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2178,7 +2240,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2194,57 +2256,57 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
         <v>131</v>
-      </c>
-      <c r="B6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
         <v>134</v>
-      </c>
-      <c r="B7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
         <v>137</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
         <v>140</v>
-      </c>
-      <c r="B9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
         <v>143</v>
-      </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2277,7 +2339,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2293,46 +2355,46 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
         <v>158</v>
-      </c>
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
         <v>161</v>
-      </c>
-      <c r="B8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
         <v>164</v>
-      </c>
-      <c r="B9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
         <v>167</v>
-      </c>
-      <c r="B10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A98FFDE-6516-4CE7-8CE0-3DB160B351E4}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB6E8296-A276-443F-A854-C23540F2CFD4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="7" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="8" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="243">
   <si>
     <t>Test Scenarios –  (Amazon E-commerce)</t>
   </si>
@@ -519,9 +519,6 @@
     <t>FR-ORD-01</t>
   </si>
   <si>
-    <t>Verify order confirmation after successful payment</t>
-  </si>
-  <si>
     <t>TS_ORD_02</t>
   </si>
   <si>
@@ -537,18 +534,12 @@
     <t>FR-ORD-03</t>
   </si>
   <si>
-    <t>Verify order details in confirmation page</t>
-  </si>
-  <si>
     <t>TS_ORD_04</t>
   </si>
   <si>
     <t>FR-ORD-04</t>
   </si>
   <si>
-    <t>Verify order appears in My Orders</t>
-  </si>
-  <si>
     <t>TS_NFR_01</t>
   </si>
   <si>
@@ -748,6 +739,42 @@
   </si>
   <si>
     <t xml:space="preserve">Verify secure payment </t>
+  </si>
+  <si>
+    <t>Verify order display on confrimation page</t>
+  </si>
+  <si>
+    <t>TS_ORD_05</t>
+  </si>
+  <si>
+    <t>FR-ORD-05</t>
+  </si>
+  <si>
+    <t>Verify order display details</t>
+  </si>
+  <si>
+    <t>Verify order display payment status</t>
+  </si>
+  <si>
+    <t>Verify order confrimation message</t>
+  </si>
+  <si>
+    <t>TS_ORD_06</t>
+  </si>
+  <si>
+    <t>Verify order in MyOrder</t>
+  </si>
+  <si>
+    <t>TS_ORD_07</t>
+  </si>
+  <si>
+    <t>FR-ORD-06</t>
+  </si>
+  <si>
+    <t>FR-ORD-07</t>
+  </si>
+  <si>
+    <t>Verfiy Email/Phone order confrimation</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1203,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,7 +1303,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,7 +1391,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,57 +1407,57 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1490,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,10 +1509,10 @@
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1493,10 +1520,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1504,10 +1531,10 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1515,10 +1542,10 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1526,10 +1553,10 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1537,10 +1564,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1548,43 +1575,43 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1645,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1794,7 +1821,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1904,7 +1931,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,7 +2052,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2058,7 +2085,7 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,10 +2123,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -2136,7 +2163,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2169,7 +2196,7 @@
         <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2202,29 +2229,29 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2237,7 +2264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BE7E3-C79E-48DB-8D5F-79AD45D7FEDF}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2258,7 +2285,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2280,7 +2307,7 @@
         <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2329,24 +2356,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" t="s">
         <v>229</v>
-      </c>
-      <c r="C11" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" t="s">
         <v>230</v>
-      </c>
-      <c r="C12" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2357,10 +2384,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473D36B-751E-4B9E-AFAD-955A33B20471}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2380,7 +2407,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2402,43 +2429,77 @@
         <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
         <v>158</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>159</v>
-      </c>
-      <c r="C8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
         <v>161</v>
       </c>
-      <c r="B9" t="s">
-        <v>162</v>
-      </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D70453F-665C-4624-AA75-9019CB8DB224}"/>
+  <xr:revisionPtr revIDLastSave="377" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1463964-23BF-4CEB-8BE6-60E8ACD61F8A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="9" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="10" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="255">
   <si>
     <t>Test Scenarios –  (Amazon E-commerce)</t>
   </si>
@@ -543,45 +543,27 @@
     <t>TS_NFR_01</t>
   </si>
   <si>
-    <t>NFR-PERF-01</t>
-  </si>
-  <si>
     <t>Verify page load performance</t>
   </si>
   <si>
     <t>TS_NFR_02</t>
   </si>
   <si>
-    <t>NFR-SEC-01</t>
-  </si>
-  <si>
     <t>Verify password masking</t>
   </si>
   <si>
     <t>TS_NFR_03</t>
   </si>
   <si>
-    <t>NFR-SEC-02</t>
-  </si>
-  <si>
-    <t>Verify session timeout</t>
-  </si>
-  <si>
     <t>TS_NFR_04</t>
   </si>
   <si>
-    <t>NFR-COMP-01</t>
-  </si>
-  <si>
     <t>Verify browser compatibility</t>
   </si>
   <si>
     <t>TS_NFR_05</t>
   </si>
   <si>
-    <t>NFR-USE-01</t>
-  </si>
-  <si>
     <t>Verify usability and error messages</t>
   </si>
   <si>
@@ -793,6 +775,42 @@
   </si>
   <si>
     <t>TS_TRACK_06</t>
+  </si>
+  <si>
+    <t>TS_NFR_06</t>
+  </si>
+  <si>
+    <t>Verify aplication reliability testing</t>
+  </si>
+  <si>
+    <t>TS_NFR_07</t>
+  </si>
+  <si>
+    <t>Verify aplication Accessablity testing</t>
+  </si>
+  <si>
+    <t>Verify aplication Data intergrity testing</t>
+  </si>
+  <si>
+    <t>NFR_01</t>
+  </si>
+  <si>
+    <t>NFR_02</t>
+  </si>
+  <si>
+    <t>NFR_03</t>
+  </si>
+  <si>
+    <t>NFR_04</t>
+  </si>
+  <si>
+    <t>NFR_05</t>
+  </si>
+  <si>
+    <t>NFR_06</t>
+  </si>
+  <si>
+    <t>NFR_07</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1239,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0290F6-856A-404F-B56C-70A88603A650}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1339,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,7 +1361,7 @@
         <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,15 +1394,15 @@
         <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
         <v>151</v>
@@ -1392,10 +1410,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
         <v>154</v>
@@ -1409,17 +1427,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB80418-CBCB-4733-9A4F-5BA017262BD8}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1432,7 +1450,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1451,57 +1469,80 @@
         <v>164</v>
       </c>
       <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
         <v>165</v>
-      </c>
-      <c r="C7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1531,7 +1572,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1550,10 +1591,10 @@
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,10 +1602,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,10 +1613,10 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,10 +1624,10 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,10 +1635,10 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,10 +1646,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1616,43 +1657,43 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" t="s">
         <v>190</v>
       </c>
-      <c r="B15" t="s">
-        <v>196</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" t="s">
         <v>191</v>
       </c>
-      <c r="B16" t="s">
-        <v>197</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" t="s">
         <v>192</v>
       </c>
-      <c r="B17" t="s">
-        <v>198</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1727,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1862,7 +1903,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1972,7 +2013,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2093,7 +2134,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2126,7 +2167,7 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2164,10 +2205,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -2204,7 +2245,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2237,7 +2278,7 @@
         <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2270,29 +2311,29 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" t="s">
         <v>216</v>
-      </c>
-      <c r="B11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" t="s">
         <v>217</v>
-      </c>
-      <c r="B12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2367,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2348,7 +2389,7 @@
         <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,24 +2438,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2489,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2470,7 +2511,7 @@
         <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2492,7 +2533,7 @@
         <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,40 +2544,40 @@
         <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="377" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1463964-23BF-4CEB-8BE6-60E8ACD61F8A}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFC0DC26-D599-4719-9F49-C1CC91940611}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="10" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="252">
   <si>
     <t>Test Scenarios –  (Amazon E-commerce)</t>
   </si>
@@ -117,99 +117,66 @@
     <t>TS_LOGIN_02</t>
   </si>
   <si>
-    <t>FR-LOGIN-02</t>
-  </si>
-  <si>
     <t>Verify login with valid email and invalid password</t>
   </si>
   <si>
     <t>TS_LOGIN_03</t>
   </si>
   <si>
-    <t>FR-LOGIN-03</t>
-  </si>
-  <si>
     <t>Verify login with invalid email and valid password</t>
   </si>
   <si>
     <t>TS_LOGIN_04</t>
   </si>
   <si>
-    <t>FR-LOGIN-04</t>
-  </si>
-  <si>
     <t>Verify login with invalid email and invalid password</t>
   </si>
   <si>
     <t>TS_LOGIN_05</t>
   </si>
   <si>
-    <t>FR-LOGIN-05</t>
-  </si>
-  <si>
     <t>Verify login with empty email and password fields</t>
   </si>
   <si>
     <t>TS_LOGIN_06</t>
   </si>
   <si>
-    <t>FR-LOGIN-06</t>
-  </si>
-  <si>
     <t>Verify error message for incorrect login credentials</t>
   </si>
   <si>
     <t>TS_LOGIN_07</t>
   </si>
   <si>
-    <t>FR-LOGIN-07</t>
-  </si>
-  <si>
     <t>Verify password field is masked</t>
   </si>
   <si>
     <t>TS_LOGIN_08</t>
   </si>
   <si>
-    <t>FR-LOGIN-08</t>
-  </si>
-  <si>
     <t>Verify login button functionality</t>
   </si>
   <si>
     <t>TS_LOGIN_09</t>
   </si>
   <si>
-    <t>FR-LOGIN-09</t>
-  </si>
-  <si>
     <t>Verify “Forgot Password” link functionality</t>
   </si>
   <si>
     <t>TS_LOGIN_10</t>
   </si>
   <si>
-    <t>FR-LOGIN-10</t>
-  </si>
-  <si>
     <t>Verify user is redirected to login page when accessing protected pages</t>
   </si>
   <si>
     <t>TS_LOGIN_11</t>
   </si>
   <si>
-    <t>FR-LOGIN-11</t>
-  </si>
-  <si>
     <t>Verify user can logout successfully</t>
   </si>
   <si>
     <t>TS_LOGIN_12</t>
   </si>
   <si>
-    <t>FR-LOGIN-12</t>
-  </si>
-  <si>
     <t>Verify session timeout after inactivity</t>
   </si>
   <si>
@@ -303,18 +270,12 @@
     <t>FR-PDP-01</t>
   </si>
   <si>
-    <t>Verify product details page loads correctly</t>
-  </si>
-  <si>
     <t>TS_PDP_02</t>
   </si>
   <si>
     <t>FR-PDP-02</t>
   </si>
   <si>
-    <t>Verify product name, price, and description</t>
-  </si>
-  <si>
     <t>TS_PDP_03</t>
   </si>
   <si>
@@ -339,18 +300,12 @@
     <t>FR-PDP-05</t>
   </si>
   <si>
-    <t>Verify product ratings and reviews</t>
-  </si>
-  <si>
     <t>TS_PDP_06</t>
   </si>
   <si>
     <t>FR-PDP-06</t>
   </si>
   <si>
-    <t>Verify similar / recommended products</t>
-  </si>
-  <si>
     <t>TS_CART_01</t>
   </si>
   <si>
@@ -811,6 +766,42 @@
   </si>
   <si>
     <t>NFR_07</t>
+  </si>
+  <si>
+    <t>FR_LOGIN_02</t>
+  </si>
+  <si>
+    <t>FR_LOGIN_03</t>
+  </si>
+  <si>
+    <t>FR_LOGIN_04</t>
+  </si>
+  <si>
+    <t>FR_LOGIN_05</t>
+  </si>
+  <si>
+    <t>FR_LOGIN_06</t>
+  </si>
+  <si>
+    <t>TS_PDP_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify product details </t>
+  </si>
+  <si>
+    <t>Verify product price</t>
+  </si>
+  <si>
+    <t>FR-PDP-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify product quantitiy selection </t>
+  </si>
+  <si>
+    <t>Verify  Add to Cart button</t>
+  </si>
+  <si>
+    <t>Verify Product description and spec</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1230,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1330,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1355,68 +1346,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB80418-CBCB-4733-9A4F-5BA017262BD8}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -1450,7 +1441,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,79 +1457,79 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1543,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1563,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,112 +1579,112 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1698,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,7 +1718,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1757,133 +1748,134 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BEF410-A99C-4F83-8530-914822E5D2F6}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,7 +1895,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1919,71 +1911,83 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2013,7 +2017,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2029,79 +2033,79 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2138,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2150,68 +2154,68 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2249,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,79 +2265,79 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2367,7 +2371,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2383,79 +2387,79 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2493,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2505,79 +2509,79 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Scenarios.xlsx
+++ b/Test-Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFC0DC26-D599-4719-9F49-C1CC91940611}"/>
+  <xr:revisionPtr revIDLastSave="444" documentId="8_{948B21D7-3FC2-4F2E-BC05-325CA788ACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A76052B4-8B06-4C02-B6A2-5FF171B7C9A8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="10" xr2:uid="{1C8D0FA0-A4BB-4C2B-8ACA-7EC30D939BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0290F6-856A-404F-B56C-70A88603A650}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB80418-CBCB-4733-9A4F-5BA017262BD8}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,6 +1429,7 @@
     <col min="1" max="1" width="37.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
